--- a/Burndown Chart/Burndown.xlsx
+++ b/Burndown Chart/Burndown.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Days</t>
   </si>
@@ -42,7 +42,10 @@
     <t>End Scrum 3</t>
   </si>
   <si>
-    <t>Burndown Chart</t>
+    <t>Projected</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Burndown Chart</c:v>
+                  <c:v>Actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -195,20 +198,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073541064"/>
-        <c:axId val="2073522200"/>
+        <c:axId val="2092010200"/>
+        <c:axId val="2077141848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073541064"/>
+        <c:axId val="2092010200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Scrum Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073522200"/>
+        <c:crossAx val="2077141848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -216,22 +238,326 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073522200"/>
+        <c:axId val="2077141848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks needed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073541064"/>
+        <c:crossAx val="2092010200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Start Scrum 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>End Scrum 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Start Scrum 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>End Scrum 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Start Scrum 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>End Scrum 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Start Scrum 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>End Scrum 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Start Scrum 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>End Scrum 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Start Scrum 3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>End Scrum 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2092149800"/>
+        <c:axId val="2092651912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2092149800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Scrum #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092651912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2092651912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Items left</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2092149800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -271,6 +597,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -601,67 +957,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>22</v>
       </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>16</v>
       </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
     </row>
